--- a/dataCustomer.xlsx
+++ b/dataCustomer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\whatsapp-blaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{658CD4A3-9937-4876-8E2C-08EB013BF0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AE6F70-DA01-427E-873F-98186F1EC679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DABE4F21-824C-4E24-8E09-01FE9A9D4FB9}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,7 +425,7 @@
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>6287817081330</v>
+        <v>6281234567890</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>6282134582230</v>
+        <v>6289876543210</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
